--- a/titanic_feature engineering_20181012.xlsx
+++ b/titanic_feature engineering_20181012.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D40F497-74F2-44C8-AE5C-03CF3F9DA1C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E25E2-E90F-4C78-857A-21412D196C43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{32A7ABBF-E5C5-4D72-B9BB-E2E0642D363D}"/>
   </bookViews>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fare도 구간별로?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name 중 다른 것은?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +125,11 @@
   </si>
   <si>
     <t>문자 포함여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fare도 구간별로?
+극한값 없애기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +529,7 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -582,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -624,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -634,8 +635,8 @@
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -643,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
